--- a/大中小項番.xlsx
+++ b/大中小項番.xlsx
@@ -354,7 +354,43 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -773,8 +809,533 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f ca="1">N(INDIRECT("R[-1]C",FALSE))+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <f ca="1">IF(C3="", "", MAX(INDIRECT("R1C:R[-1]C", FALSE))+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f ca="1">IF(C3&lt;&gt;"", 1, IF(E3="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F21" ca="1" si="0">IF(E3&lt;&gt;"", 1, IF(G3="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A21" ca="1" si="1">N(INDIRECT("R[-1]C",FALSE))+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ref="B4:B21" ca="1" si="2">IF(C4="", "", MAX(INDIRECT("R1C:R[-1]C", FALSE))+1)</f>
+        <v/>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D21" ca="1" si="3">IF(C4&lt;&gt;"", 1, IF(E4="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B3:F22">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="1">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,25 +1369,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <f t="shared" ref="A3" ca="1" si="0">IF(TYPE(OFFSET(A3, -1, 0))=1, OFFSET(A3, -1, 0)+1, 1)</f>
+        <f ca="1">N(INDIRECT("R[-1]C",FALSE))+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f ca="1">IF(C3="", "", COUNT(OFFSET(B:B,0,0,ROW()-1))+1)</f>
+        <f ca="1">IF(C3="", "", MAX(INDIRECT("R1C:R[-1]C", FALSE))+1)</f>
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <f ca="1">IF(C3&lt;&gt;"", 1, IF(E3="", "", INDEX(D:D, MATCH(-1, OFFSET(D:D, 0, 0, ROW()-1), -1))+1))</f>
+        <f ca="1">IF(C3&lt;&gt;"", 1, IF(E3="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F21" ca="1" si="1">IF(E3&lt;&gt;"", 1, IF(G3="", "", INDEX(F:F, MATCH(-1, OFFSET(F:F, 0, 0, ROW()-1), -1))+1))</f>
+        <f t="shared" ref="F3:F21" ca="1" si="0">IF(E3&lt;&gt;"", 1, IF(G3="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -835,23 +1396,23 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A21" ca="1" si="2">IF(TYPE(OFFSET(A4, -1, 0))=1, OFFSET(A4, -1, 0)+1, 1)</f>
+        <f t="shared" ref="A4:A21" ca="1" si="1">N(INDIRECT("R[-1]C",FALSE))+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" ref="B4:B21" ca="1" si="3">IF(C4="", "", COUNT(OFFSET(B:B,0,0,ROW()-1))+1)</f>
+        <f t="shared" ref="B4:B21" ca="1" si="2">IF(C4="", "", MAX(INDIRECT("R1C:R[-1]C", FALSE))+1)</f>
         <v/>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D21" ca="1" si="4">IF(C4&lt;&gt;"", 1, IF(E4="", "", INDEX(D:D, MATCH(-1, OFFSET(D:D, 0, 0, ROW()-1), -1))+1))</f>
+        <f t="shared" ref="D4:D21" ca="1" si="3">IF(C4&lt;&gt;"", 1, IF(E4="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -860,21 +1421,21 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -883,23 +1444,23 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -908,23 +1469,23 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -933,25 +1494,25 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -960,21 +1521,21 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -983,23 +1544,23 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1008,23 +1569,23 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1033,21 +1594,21 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1056,25 +1617,25 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1083,21 +1644,21 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1106,21 +1667,21 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1129,21 +1690,21 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1152,21 +1713,21 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1175,21 +1736,21 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1198,21 +1759,21 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1221,21 +1782,21 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1244,21 +1805,21 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1283,1033 +1844,521 @@
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <f ca="1">N(INDIRECT("R[-1]C",FALSE))+1</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <f ca="1">IF(C26="", "", MAX(INDIRECT("R25C:R[-1]C", FALSE))+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <f ca="1">IF(C26&lt;&gt;"", 1, IF(E26="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:F44" ca="1" si="4">IF(E26&lt;&gt;"", 1, IF(G26="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <f t="shared" ref="A26:A44" ca="1" si="5">N(INDIRECT("R[-1]C",FALSE))+1</f>
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" ref="B27:B44" ca="1" si="6">IF(C27="", "", MAX(INDIRECT("R25C:R[-1]C", FALSE))+1)</f>
+        <v/>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="str">
+        <f t="shared" ref="D27:D44" ca="1" si="7">IF(C27&lt;&gt;"", 1, IF(E27="", "", INDEX(INDIRECT("C", 0), MATCH(-1, INDIRECT("R1C:R[-1]C", 0), -1))+1))</f>
+        <v/>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:F22">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(B3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A21" ca="1" si="0">IF(TYPE(OFFSET(A3, -1, 0))=1, OFFSET(A3, -1, 0)+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <f ca="1">IF(C3="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B3)-2))+1)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <f ca="1">IF(C3&lt;&gt;"", 1, IF(E3="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D3)-2), -1)+ROW(D$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <f ca="1">IF(E3&lt;&gt;"", 1, IF(G3="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F3)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">IF(C4="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B4)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <f ca="1">IF(C4&lt;&gt;"", 1, IF(E4="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D4)-2), -1)+ROW(D$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
-        <f ca="1">IF(E4&lt;&gt;"", 1, IF(G4="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F4)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f ca="1">IF(C5="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B5)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="str">
-        <f ca="1">IF(C5&lt;&gt;"", 1, IF(E5="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D5)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <f ca="1">IF(E5&lt;&gt;"", 1, IF(G5="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F5)-2), -1)+ROW(F$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f ca="1">IF(C6="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B6)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <f ca="1">IF(C6&lt;&gt;"", 1, IF(E6="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D6)-2), -1)+ROW(D$2))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <f ca="1">IF(E6&lt;&gt;"", 1, IF(G6="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F6)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f ca="1">IF(C7="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B7)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <f ca="1">IF(C7&lt;&gt;"", 1, IF(E7="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D7)-2), -1)+ROW(D$2))+1))</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
-        <f ca="1">IF(E7&lt;&gt;"", 1, IF(G7="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F7)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <f ca="1">IF(C8="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B8)-2))+1)</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <f ca="1">IF(C8&lt;&gt;"", 1, IF(E8="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D8)-2), -1)+ROW(D$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <f ca="1">IF(E8&lt;&gt;"", 1, IF(G8="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F8)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f ca="1">IF(C9="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B9)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="str">
-        <f ca="1">IF(C9&lt;&gt;"", 1, IF(E9="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D9)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <f ca="1">IF(E9&lt;&gt;"", 1, IF(G9="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F9)-2), -1)+ROW(F$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f ca="1">IF(C10="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B10)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <f ca="1">IF(C10&lt;&gt;"", 1, IF(E10="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D10)-2), -1)+ROW(D$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3">
-        <f ca="1">IF(E10&lt;&gt;"", 1, IF(G10="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F10)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f ca="1">IF(C11="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B11)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <f ca="1">IF(C11&lt;&gt;"", 1, IF(E11="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D11)-2), -1)+ROW(D$2))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <f ca="1">IF(E11&lt;&gt;"", 1, IF(G11="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F11)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f ca="1">IF(C12="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B12)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="str">
-        <f ca="1">IF(C12&lt;&gt;"", 1, IF(E12="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D12)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <f ca="1">IF(E12&lt;&gt;"", 1, IF(G12="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F12)-2), -1)+ROW(F$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <f ca="1">IF(C13="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B13)-2))+1)</f>
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <f ca="1">IF(C13&lt;&gt;"", 1, IF(E13="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D13)-2), -1)+ROW(D$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <f ca="1">IF(E13&lt;&gt;"", 1, IF(G13="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F13)-2), -1)+ROW(F$2))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f ca="1">IF(C14="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B14)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="str">
-        <f ca="1">IF(C14&lt;&gt;"", 1, IF(E14="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D14)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <f ca="1">IF(E14&lt;&gt;"", 1, IF(G14="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F14)-2), -1)+ROW(F$2))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f ca="1">IF(C15="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B15)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="str">
-        <f ca="1">IF(C15&lt;&gt;"", 1, IF(E15="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D15)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <f ca="1">IF(E15&lt;&gt;"", 1, IF(G15="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F15)-2), -1)+ROW(F$2))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f ca="1">IF(C16="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B16)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="str">
-        <f ca="1">IF(C16&lt;&gt;"", 1, IF(E16="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D16)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <f ca="1">IF(E16&lt;&gt;"", 1, IF(G16="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F16)-2), -1)+ROW(F$2))+1))</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f ca="1">IF(C17="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B17)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="str">
-        <f ca="1">IF(C17&lt;&gt;"", 1, IF(E17="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D17)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <f ca="1">IF(E17&lt;&gt;"", 1, IF(G17="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F17)-2), -1)+ROW(F$2))+1))</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f ca="1">IF(C18="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B18)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="str">
-        <f ca="1">IF(C18&lt;&gt;"", 1, IF(E18="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D18)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <f ca="1">IF(E18&lt;&gt;"", 1, IF(G18="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F18)-2), -1)+ROW(F$2))+1))</f>
-        <v>6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f ca="1">IF(C19="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B19)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="str">
-        <f ca="1">IF(C19&lt;&gt;"", 1, IF(E19="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D19)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <f ca="1">IF(E19&lt;&gt;"", 1, IF(G19="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F19)-2), -1)+ROW(F$2))+1))</f>
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f ca="1">IF(C20="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B20)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="str">
-        <f ca="1">IF(C20&lt;&gt;"", 1, IF(E20="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D20)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <f ca="1">IF(E20&lt;&gt;"", 1, IF(G20="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F20)-2), -1)+ROW(F$2))+1))</f>
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f ca="1">IF(C21="", "", COUNT(OFFSET(B$2,1,0,ROWS(B$2:B21)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="str">
-        <f ca="1">IF(C21&lt;&gt;"", 1, IF(E21="", "", INDEX(D:D, MATCH(-1, OFFSET(D$2,1,0,ROWS(D$2:D21)-2), -1)+ROW(D$2))+1))</f>
-        <v/>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <f ca="1">IF(E21&lt;&gt;"", 1, IF(G21="", "", INDEX(F:F, MATCH(-1, OFFSET(F$2,1,0,ROWS(F$2:F21)-2), -1)+ROW(F$2))+1))</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <f t="shared" ref="A26:A44" ca="1" si="1">IF(TYPE(OFFSET(A26, -1, 0))=1, OFFSET(A26, -1, 0)+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <f ca="1">IF(C26="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B26)-2))+1)</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <f ca="1">IF(C26&lt;&gt;"", 1, IF(E26="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D26)-2), -1)+ROW(D$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <f ca="1">IF(E26&lt;&gt;"", 1, IF(G26="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F26)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f ca="1">IF(C27="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B27)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="str">
-        <f ca="1">IF(C27&lt;&gt;"", 1, IF(E27="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D27)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <f ca="1">IF(E27&lt;&gt;"", 1, IF(G27="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F27)-2), -1)+ROW(F$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f ca="1">IF(C28="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B28)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="str">
-        <f ca="1">IF(C28&lt;&gt;"", 1, IF(E28="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D28)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <f ca="1">IF(E28&lt;&gt;"", 1, IF(G28="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F28)-2), -1)+ROW(F$25))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f ca="1">IF(C29="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B29)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="str">
-        <f ca="1">IF(C29&lt;&gt;"", 1, IF(E29="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D29)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f ca="1">IF(E29&lt;&gt;"", 1, IF(G29="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F29)-2), -1)+ROW(F$25))+1))</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f ca="1">IF(C30="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B30)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="str">
-        <f ca="1">IF(C30&lt;&gt;"", 1, IF(E30="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D30)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <f ca="1">IF(E30&lt;&gt;"", 1, IF(G30="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F30)-2), -1)+ROW(F$25))+1))</f>
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B31" s="3">
-        <f ca="1">IF(C31="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B31)-2))+1)</f>
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3">
-        <f ca="1">IF(C31&lt;&gt;"", 1, IF(E31="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D31)-2), -1)+ROW(D$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3">
-        <f ca="1">IF(E31&lt;&gt;"", 1, IF(G31="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F31)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f ca="1">IF(C32="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B32)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="str">
-        <f ca="1">IF(C32&lt;&gt;"", 1, IF(E32="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D32)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <f ca="1">IF(E32&lt;&gt;"", 1, IF(G32="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F32)-2), -1)+ROW(F$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f ca="1">IF(C33="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B33)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <f ca="1">IF(C33&lt;&gt;"", 1, IF(E33="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D33)-2), -1)+ROW(D$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3">
-        <f ca="1">IF(E33&lt;&gt;"", 1, IF(G33="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F33)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f ca="1">IF(C34="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B34)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <f ca="1">IF(C34&lt;&gt;"", 1, IF(E34="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D34)-2), -1)+ROW(D$25))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3">
-        <f ca="1">IF(E34&lt;&gt;"", 1, IF(G34="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F34)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f ca="1">IF(C35="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B35)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="str">
-        <f ca="1">IF(C35&lt;&gt;"", 1, IF(E35="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D35)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <f ca="1">IF(E35&lt;&gt;"", 1, IF(G35="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F35)-2), -1)+ROW(F$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B36" s="3">
-        <f ca="1">IF(C36="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B36)-2))+1)</f>
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
-        <f ca="1">IF(C36&lt;&gt;"", 1, IF(E36="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D36)-2), -1)+ROW(D$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3">
-        <f ca="1">IF(E36&lt;&gt;"", 1, IF(G36="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F36)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f ca="1">IF(C37="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B37)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="str">
-        <f ca="1">IF(C37&lt;&gt;"", 1, IF(E37="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D37)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <f ca="1">IF(E37&lt;&gt;"", 1, IF(G37="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F37)-2), -1)+ROW(F$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f ca="1">IF(C38="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B38)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="str">
-        <f ca="1">IF(C38&lt;&gt;"", 1, IF(E38="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D38)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <f ca="1">IF(E38&lt;&gt;"", 1, IF(G38="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F38)-2), -1)+ROW(F$25))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f ca="1">IF(C39="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B39)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="str">
-        <f ca="1">IF(C39&lt;&gt;"", 1, IF(E39="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D39)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
-        <f ca="1">IF(E39&lt;&gt;"", 1, IF(G39="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F39)-2), -1)+ROW(F$25))+1))</f>
-        <v>4</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="str">
-        <f ca="1">IF(C40="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B40)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="str">
-        <f ca="1">IF(C40&lt;&gt;"", 1, IF(E40="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D40)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <f ca="1">IF(E40&lt;&gt;"", 1, IF(G40="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F40)-2), -1)+ROW(F$25))+1))</f>
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f ca="1">IF(C41="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B41)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <f ca="1">IF(C41&lt;&gt;"", 1, IF(E41="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D41)-2), -1)+ROW(D$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="3">
-        <f ca="1">IF(E41&lt;&gt;"", 1, IF(G41="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F41)-2), -1)+ROW(F$25))+1))</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f ca="1">IF(C42="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B42)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="str">
-        <f ca="1">IF(C42&lt;&gt;"", 1, IF(E42="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D42)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <f ca="1">IF(E42&lt;&gt;"", 1, IF(G42="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F42)-2), -1)+ROW(F$25))+1))</f>
-        <v>2</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f ca="1">IF(C43="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B43)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="str">
-        <f ca="1">IF(C43&lt;&gt;"", 1, IF(E43="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D43)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3">
-        <f ca="1">IF(E43&lt;&gt;"", 1, IF(G43="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F43)-2), -1)+ROW(F$25))+1))</f>
-        <v>3</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <f ca="1">IF(C44="", "", COUNT(OFFSET(B$25,1,0,ROWS(B$25:B44)-2))+1)</f>
-        <v/>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="str">
-        <f ca="1">IF(C44&lt;&gt;"", 1, IF(E44="", "", INDEX(D:D, MATCH(-1, OFFSET(D$25,1,0,ROWS(D$25:D44)-2), -1)+ROW(D$25))+1))</f>
-        <v/>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <f ca="1">IF(E44&lt;&gt;"", 1, IF(G44="", "", INDEX(F:F, MATCH(-1, OFFSET(F$25,1,0,ROWS(F$25:F44)-2), -1)+ROW(F$25))+1))</f>
-        <v>4</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:F22">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:F45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="4">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3 B3:B21 D3:D21 F3:F21">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 B26:B44 D26:D44 F26:F44">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 B26:B44 D26:D44 F26:F44">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(B26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
